--- a/clean/unit/clean_unit/12193B.xlsx
+++ b/clean/unit/clean_unit/12193B.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>g/l;;;ug/l</t>
+          <t>ug/l</t>
         </is>
       </c>
       <c r="D10">
@@ -552,7 +552,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>g/l;;ng/l</t>
+          <t>ng/l</t>
         </is>
       </c>
       <c r="D11">

--- a/clean/unit/clean_unit/12193B.xlsx
+++ b/clean/unit/clean_unit/12193B.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Assay_Unit</t>
+          <t>Unit_Clean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
